--- a/EXCEL/IRA ERA AUR - APS - 2023.xlsx
+++ b/EXCEL/IRA ERA AUR - APS - 2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://licenciasminsal-my.sharepoint.com/personal/santiago_farias_redsalud_gob_cl/Documents/Escritorio/GIE/IRA-ERA/EXCEL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="11_AD4D2F04E46CFB4ACB3E20ED2594FE04693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{480EEED3-053B-4F66-ADD4-4D0AE94C8F49}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="11_AD4D2F04E46CFB4ACB3E20ED2594FE04693EDF25" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13C55011-4FD5-4937-A2AC-B9C57F0D8EA3}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" firstSheet="5" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Todas las Edades - Área" sheetId="2" r:id="rId1"/>
@@ -12192,16 +12192,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395286</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12233,16 +12233,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>585787</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12274,16 +12274,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>176212</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>481012</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12397,16 +12397,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>395287</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>90487</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15274,7 +15274,7 @@
   <dimension ref="A1:F53"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17425,8 +17425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F233AF2-64F7-4BB7-8472-9A16898E875B}">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1048576"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18502,7 +18502,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18647,8 +18647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CD6A3AE-8E33-458D-ADF7-AF615CB5162B}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCellId="1" sqref="C1:C1048576 A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18875,8 +18875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCFB77A-D86D-4824-8329-2A8F21DA1683}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
